--- a/BD/TRABAJADORES.XLSX
+++ b/BD/TRABAJADORES.XLSX
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorderiquev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCP DIARIO\2026\FEBRERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{064D4AAB-B741-447A-BF2F-74F01FD2CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEEC1345-BAD0-4C1F-BB03-4AC252FFD66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{44ADBED5-15D6-4E38-9839-5A0E93A13687}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF98C131-CDC3-48CE-9989-77C177F53523}"/>
   </bookViews>
   <sheets>
     <sheet name="DNI TRABAJADORES" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>s05451</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{426F0C5E-F715-4999-9D91-62D99423A8DA}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CD52F0C0-8B9C-4889-BEAA-0AA91F1FF496}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A795D2E9-D59A-4F5C-9DCC-8B44DD867079}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B2AF0695-0A82-4ABA-AFB1-287889C44C2C}">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="478">
   <si>
     <t>Código del Depositante</t>
   </si>
@@ -1418,13 +1418,118 @@
   </si>
   <si>
     <t>LUIS ANGELLO PASCO MENDOZA</t>
+  </si>
+  <si>
+    <t>GARCIA SANCARRANCO LUIS ALBERTO </t>
+  </si>
+  <si>
+    <t>GUERRERO SANCHEZ EDWIN</t>
+  </si>
+  <si>
+    <t>47968367</t>
+  </si>
+  <si>
+    <t>NEVER ABEL PINTADO ESTELA</t>
+  </si>
+  <si>
+    <t>YANETH DEL MILAGRO ESTELA AGUILAR</t>
+  </si>
+  <si>
+    <t>VALENCIA MARTINEZ, MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>PORTOCARRERO CANARIO JOSE ROBERTO</t>
+  </si>
+  <si>
+    <t>06443718</t>
+  </si>
+  <si>
+    <t>Roberto Yafac Da Cruz Gouvea</t>
+  </si>
+  <si>
+    <t>MECHATO TELLO NORA</t>
+  </si>
+  <si>
+    <t>SORIA MERMAO, ALEXIS</t>
+  </si>
+  <si>
+    <t>Sara Getrudes Cabanillas Mendo</t>
+  </si>
+  <si>
+    <t>CUBAS CARRILLO RONALD</t>
+  </si>
+  <si>
+    <t>HUAMAN NOVOA, PATRICIA DE LOS MILAGROS</t>
+  </si>
+  <si>
+    <t>MORETO CARLOS, MILAGROS AURORA</t>
+  </si>
+  <si>
+    <t>GONZALES MESTANZA MARVIN</t>
+  </si>
+  <si>
+    <t>Miguel Antonio Quicio Nizama</t>
+  </si>
+  <si>
+    <t>Jorge Luis Campos Diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALARCON PEREZ, VICTOR EDINSON </t>
+  </si>
+  <si>
+    <t>SANCHEZ CABANILLAS, RONALD WALDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Alejandro Guerrero Cruz </t>
+  </si>
+  <si>
+    <t>MIGUEL CUSTODIO CORBERA</t>
+  </si>
+  <si>
+    <t>RONALD CUBAS CARRILLO</t>
+  </si>
+  <si>
+    <t>MANUEL ALEXANDER COLLAZOS JUAREZ</t>
+  </si>
+  <si>
+    <t>43670630</t>
+  </si>
+  <si>
+    <t>TORRES BENITES, VEDER MIGUEL</t>
+  </si>
+  <si>
+    <t>CLAUDIA PAMELA MEZA GAMARRA</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE CHAPONAN PEREZ</t>
+  </si>
+  <si>
+    <t>SIPION LOPEZ, KAREM STEPHANE</t>
+  </si>
+  <si>
+    <t>PEDRO INFANTE LLATAS</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL SAMILLAN CHANCAFE</t>
+  </si>
+  <si>
+    <t>MAGALY BECERRA SANCHEZ</t>
+  </si>
+  <si>
+    <t>SANDRA LUCIA ANCAJIMA MORENO</t>
+  </si>
+  <si>
+    <t>Silvia Paola Bautista Pastor</t>
+  </si>
+  <si>
+    <t>TIMANA VASQUEZ, ROLANDO GILBERTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1456,6 +1561,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1482,7 +1599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1492,13 +1609,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1515,6 +1632,34 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,7 +1708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1589,15 +1734,41 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1914,210 +2085,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AB9790-ED23-404A-91F9-CF8AC8336215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE795E01-B438-449F-A17A-D5DA44BB340A}">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E1104"/>
+  <dimension ref="A1:F1104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="B478" sqref="B478"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="10" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="10" customWidth="1"/>
-    <col min="3" max="256" width="11.42578125" style="4"/>
-    <col min="257" max="257" width="22" style="4" customWidth="1"/>
-    <col min="258" max="258" width="56.140625" style="4" customWidth="1"/>
-    <col min="259" max="512" width="11.42578125" style="4"/>
-    <col min="513" max="513" width="22" style="4" customWidth="1"/>
-    <col min="514" max="514" width="56.140625" style="4" customWidth="1"/>
-    <col min="515" max="768" width="11.42578125" style="4"/>
-    <col min="769" max="769" width="22" style="4" customWidth="1"/>
-    <col min="770" max="770" width="56.140625" style="4" customWidth="1"/>
-    <col min="771" max="1024" width="11.42578125" style="4"/>
-    <col min="1025" max="1025" width="22" style="4" customWidth="1"/>
-    <col min="1026" max="1026" width="56.140625" style="4" customWidth="1"/>
-    <col min="1027" max="1280" width="11.42578125" style="4"/>
-    <col min="1281" max="1281" width="22" style="4" customWidth="1"/>
-    <col min="1282" max="1282" width="56.140625" style="4" customWidth="1"/>
-    <col min="1283" max="1536" width="11.42578125" style="4"/>
-    <col min="1537" max="1537" width="22" style="4" customWidth="1"/>
-    <col min="1538" max="1538" width="56.140625" style="4" customWidth="1"/>
-    <col min="1539" max="1792" width="11.42578125" style="4"/>
-    <col min="1793" max="1793" width="22" style="4" customWidth="1"/>
-    <col min="1794" max="1794" width="56.140625" style="4" customWidth="1"/>
-    <col min="1795" max="2048" width="11.42578125" style="4"/>
-    <col min="2049" max="2049" width="22" style="4" customWidth="1"/>
-    <col min="2050" max="2050" width="56.140625" style="4" customWidth="1"/>
-    <col min="2051" max="2304" width="11.42578125" style="4"/>
-    <col min="2305" max="2305" width="22" style="4" customWidth="1"/>
-    <col min="2306" max="2306" width="56.140625" style="4" customWidth="1"/>
-    <col min="2307" max="2560" width="11.42578125" style="4"/>
-    <col min="2561" max="2561" width="22" style="4" customWidth="1"/>
-    <col min="2562" max="2562" width="56.140625" style="4" customWidth="1"/>
-    <col min="2563" max="2816" width="11.42578125" style="4"/>
-    <col min="2817" max="2817" width="22" style="4" customWidth="1"/>
-    <col min="2818" max="2818" width="56.140625" style="4" customWidth="1"/>
-    <col min="2819" max="3072" width="11.42578125" style="4"/>
-    <col min="3073" max="3073" width="22" style="4" customWidth="1"/>
-    <col min="3074" max="3074" width="56.140625" style="4" customWidth="1"/>
-    <col min="3075" max="3328" width="11.42578125" style="4"/>
-    <col min="3329" max="3329" width="22" style="4" customWidth="1"/>
-    <col min="3330" max="3330" width="56.140625" style="4" customWidth="1"/>
-    <col min="3331" max="3584" width="11.42578125" style="4"/>
-    <col min="3585" max="3585" width="22" style="4" customWidth="1"/>
-    <col min="3586" max="3586" width="56.140625" style="4" customWidth="1"/>
-    <col min="3587" max="3840" width="11.42578125" style="4"/>
-    <col min="3841" max="3841" width="22" style="4" customWidth="1"/>
-    <col min="3842" max="3842" width="56.140625" style="4" customWidth="1"/>
-    <col min="3843" max="4096" width="11.42578125" style="4"/>
-    <col min="4097" max="4097" width="22" style="4" customWidth="1"/>
-    <col min="4098" max="4098" width="56.140625" style="4" customWidth="1"/>
-    <col min="4099" max="4352" width="11.42578125" style="4"/>
-    <col min="4353" max="4353" width="22" style="4" customWidth="1"/>
-    <col min="4354" max="4354" width="56.140625" style="4" customWidth="1"/>
-    <col min="4355" max="4608" width="11.42578125" style="4"/>
-    <col min="4609" max="4609" width="22" style="4" customWidth="1"/>
-    <col min="4610" max="4610" width="56.140625" style="4" customWidth="1"/>
-    <col min="4611" max="4864" width="11.42578125" style="4"/>
-    <col min="4865" max="4865" width="22" style="4" customWidth="1"/>
-    <col min="4866" max="4866" width="56.140625" style="4" customWidth="1"/>
-    <col min="4867" max="5120" width="11.42578125" style="4"/>
-    <col min="5121" max="5121" width="22" style="4" customWidth="1"/>
-    <col min="5122" max="5122" width="56.140625" style="4" customWidth="1"/>
-    <col min="5123" max="5376" width="11.42578125" style="4"/>
-    <col min="5377" max="5377" width="22" style="4" customWidth="1"/>
-    <col min="5378" max="5378" width="56.140625" style="4" customWidth="1"/>
-    <col min="5379" max="5632" width="11.42578125" style="4"/>
-    <col min="5633" max="5633" width="22" style="4" customWidth="1"/>
-    <col min="5634" max="5634" width="56.140625" style="4" customWidth="1"/>
-    <col min="5635" max="5888" width="11.42578125" style="4"/>
-    <col min="5889" max="5889" width="22" style="4" customWidth="1"/>
-    <col min="5890" max="5890" width="56.140625" style="4" customWidth="1"/>
-    <col min="5891" max="6144" width="11.42578125" style="4"/>
-    <col min="6145" max="6145" width="22" style="4" customWidth="1"/>
-    <col min="6146" max="6146" width="56.140625" style="4" customWidth="1"/>
-    <col min="6147" max="6400" width="11.42578125" style="4"/>
-    <col min="6401" max="6401" width="22" style="4" customWidth="1"/>
-    <col min="6402" max="6402" width="56.140625" style="4" customWidth="1"/>
-    <col min="6403" max="6656" width="11.42578125" style="4"/>
-    <col min="6657" max="6657" width="22" style="4" customWidth="1"/>
-    <col min="6658" max="6658" width="56.140625" style="4" customWidth="1"/>
-    <col min="6659" max="6912" width="11.42578125" style="4"/>
-    <col min="6913" max="6913" width="22" style="4" customWidth="1"/>
-    <col min="6914" max="6914" width="56.140625" style="4" customWidth="1"/>
-    <col min="6915" max="7168" width="11.42578125" style="4"/>
-    <col min="7169" max="7169" width="22" style="4" customWidth="1"/>
-    <col min="7170" max="7170" width="56.140625" style="4" customWidth="1"/>
-    <col min="7171" max="7424" width="11.42578125" style="4"/>
-    <col min="7425" max="7425" width="22" style="4" customWidth="1"/>
-    <col min="7426" max="7426" width="56.140625" style="4" customWidth="1"/>
-    <col min="7427" max="7680" width="11.42578125" style="4"/>
-    <col min="7681" max="7681" width="22" style="4" customWidth="1"/>
-    <col min="7682" max="7682" width="56.140625" style="4" customWidth="1"/>
-    <col min="7683" max="7936" width="11.42578125" style="4"/>
-    <col min="7937" max="7937" width="22" style="4" customWidth="1"/>
-    <col min="7938" max="7938" width="56.140625" style="4" customWidth="1"/>
-    <col min="7939" max="8192" width="11.42578125" style="4"/>
-    <col min="8193" max="8193" width="22" style="4" customWidth="1"/>
-    <col min="8194" max="8194" width="56.140625" style="4" customWidth="1"/>
-    <col min="8195" max="8448" width="11.42578125" style="4"/>
-    <col min="8449" max="8449" width="22" style="4" customWidth="1"/>
-    <col min="8450" max="8450" width="56.140625" style="4" customWidth="1"/>
-    <col min="8451" max="8704" width="11.42578125" style="4"/>
-    <col min="8705" max="8705" width="22" style="4" customWidth="1"/>
-    <col min="8706" max="8706" width="56.140625" style="4" customWidth="1"/>
-    <col min="8707" max="8960" width="11.42578125" style="4"/>
-    <col min="8961" max="8961" width="22" style="4" customWidth="1"/>
-    <col min="8962" max="8962" width="56.140625" style="4" customWidth="1"/>
-    <col min="8963" max="9216" width="11.42578125" style="4"/>
-    <col min="9217" max="9217" width="22" style="4" customWidth="1"/>
-    <col min="9218" max="9218" width="56.140625" style="4" customWidth="1"/>
-    <col min="9219" max="9472" width="11.42578125" style="4"/>
-    <col min="9473" max="9473" width="22" style="4" customWidth="1"/>
-    <col min="9474" max="9474" width="56.140625" style="4" customWidth="1"/>
-    <col min="9475" max="9728" width="11.42578125" style="4"/>
-    <col min="9729" max="9729" width="22" style="4" customWidth="1"/>
-    <col min="9730" max="9730" width="56.140625" style="4" customWidth="1"/>
-    <col min="9731" max="9984" width="11.42578125" style="4"/>
-    <col min="9985" max="9985" width="22" style="4" customWidth="1"/>
-    <col min="9986" max="9986" width="56.140625" style="4" customWidth="1"/>
-    <col min="9987" max="10240" width="11.42578125" style="4"/>
-    <col min="10241" max="10241" width="22" style="4" customWidth="1"/>
-    <col min="10242" max="10242" width="56.140625" style="4" customWidth="1"/>
-    <col min="10243" max="10496" width="11.42578125" style="4"/>
-    <col min="10497" max="10497" width="22" style="4" customWidth="1"/>
-    <col min="10498" max="10498" width="56.140625" style="4" customWidth="1"/>
-    <col min="10499" max="10752" width="11.42578125" style="4"/>
-    <col min="10753" max="10753" width="22" style="4" customWidth="1"/>
-    <col min="10754" max="10754" width="56.140625" style="4" customWidth="1"/>
-    <col min="10755" max="11008" width="11.42578125" style="4"/>
-    <col min="11009" max="11009" width="22" style="4" customWidth="1"/>
-    <col min="11010" max="11010" width="56.140625" style="4" customWidth="1"/>
-    <col min="11011" max="11264" width="11.42578125" style="4"/>
-    <col min="11265" max="11265" width="22" style="4" customWidth="1"/>
-    <col min="11266" max="11266" width="56.140625" style="4" customWidth="1"/>
-    <col min="11267" max="11520" width="11.42578125" style="4"/>
-    <col min="11521" max="11521" width="22" style="4" customWidth="1"/>
-    <col min="11522" max="11522" width="56.140625" style="4" customWidth="1"/>
-    <col min="11523" max="11776" width="11.42578125" style="4"/>
-    <col min="11777" max="11777" width="22" style="4" customWidth="1"/>
-    <col min="11778" max="11778" width="56.140625" style="4" customWidth="1"/>
-    <col min="11779" max="12032" width="11.42578125" style="4"/>
-    <col min="12033" max="12033" width="22" style="4" customWidth="1"/>
-    <col min="12034" max="12034" width="56.140625" style="4" customWidth="1"/>
-    <col min="12035" max="12288" width="11.42578125" style="4"/>
-    <col min="12289" max="12289" width="22" style="4" customWidth="1"/>
-    <col min="12290" max="12290" width="56.140625" style="4" customWidth="1"/>
-    <col min="12291" max="12544" width="11.42578125" style="4"/>
-    <col min="12545" max="12545" width="22" style="4" customWidth="1"/>
-    <col min="12546" max="12546" width="56.140625" style="4" customWidth="1"/>
-    <col min="12547" max="12800" width="11.42578125" style="4"/>
-    <col min="12801" max="12801" width="22" style="4" customWidth="1"/>
-    <col min="12802" max="12802" width="56.140625" style="4" customWidth="1"/>
-    <col min="12803" max="13056" width="11.42578125" style="4"/>
-    <col min="13057" max="13057" width="22" style="4" customWidth="1"/>
-    <col min="13058" max="13058" width="56.140625" style="4" customWidth="1"/>
-    <col min="13059" max="13312" width="11.42578125" style="4"/>
-    <col min="13313" max="13313" width="22" style="4" customWidth="1"/>
-    <col min="13314" max="13314" width="56.140625" style="4" customWidth="1"/>
-    <col min="13315" max="13568" width="11.42578125" style="4"/>
-    <col min="13569" max="13569" width="22" style="4" customWidth="1"/>
-    <col min="13570" max="13570" width="56.140625" style="4" customWidth="1"/>
-    <col min="13571" max="13824" width="11.42578125" style="4"/>
-    <col min="13825" max="13825" width="22" style="4" customWidth="1"/>
-    <col min="13826" max="13826" width="56.140625" style="4" customWidth="1"/>
-    <col min="13827" max="14080" width="11.42578125" style="4"/>
-    <col min="14081" max="14081" width="22" style="4" customWidth="1"/>
-    <col min="14082" max="14082" width="56.140625" style="4" customWidth="1"/>
-    <col min="14083" max="14336" width="11.42578125" style="4"/>
-    <col min="14337" max="14337" width="22" style="4" customWidth="1"/>
-    <col min="14338" max="14338" width="56.140625" style="4" customWidth="1"/>
-    <col min="14339" max="14592" width="11.42578125" style="4"/>
-    <col min="14593" max="14593" width="22" style="4" customWidth="1"/>
-    <col min="14594" max="14594" width="56.140625" style="4" customWidth="1"/>
-    <col min="14595" max="14848" width="11.42578125" style="4"/>
-    <col min="14849" max="14849" width="22" style="4" customWidth="1"/>
-    <col min="14850" max="14850" width="56.140625" style="4" customWidth="1"/>
-    <col min="14851" max="15104" width="11.42578125" style="4"/>
-    <col min="15105" max="15105" width="22" style="4" customWidth="1"/>
-    <col min="15106" max="15106" width="56.140625" style="4" customWidth="1"/>
-    <col min="15107" max="15360" width="11.42578125" style="4"/>
-    <col min="15361" max="15361" width="22" style="4" customWidth="1"/>
-    <col min="15362" max="15362" width="56.140625" style="4" customWidth="1"/>
-    <col min="15363" max="15616" width="11.42578125" style="4"/>
-    <col min="15617" max="15617" width="22" style="4" customWidth="1"/>
-    <col min="15618" max="15618" width="56.140625" style="4" customWidth="1"/>
-    <col min="15619" max="15872" width="11.42578125" style="4"/>
-    <col min="15873" max="15873" width="22" style="4" customWidth="1"/>
-    <col min="15874" max="15874" width="56.140625" style="4" customWidth="1"/>
-    <col min="15875" max="16128" width="11.42578125" style="4"/>
-    <col min="16129" max="16129" width="22" style="4" customWidth="1"/>
-    <col min="16130" max="16130" width="56.140625" style="4" customWidth="1"/>
-    <col min="16131" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="22" style="20" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5576,7 +5558,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>16688915</v>
       </c>
@@ -5584,7 +5566,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>41327600</v>
       </c>
@@ -5592,7 +5574,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>47126578</v>
       </c>
@@ -5600,7 +5582,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>42792964</v>
       </c>
@@ -5608,7 +5590,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>71003287</v>
       </c>
@@ -5616,7 +5598,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>71718775</v>
       </c>
@@ -5624,7 +5606,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>17408116</v>
       </c>
@@ -5632,7 +5614,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>2893467</v>
       </c>
@@ -5640,7 +5622,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>72766443</v>
       </c>
@@ -5648,166 +5630,302 @@
         <v>441</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>45261152</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C442" s="3"/>
-      <c r="D442" s="3"/>
-      <c r="E442" s="3"/>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="3"/>
-      <c r="B443" s="3"/>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="3"/>
-      <c r="B444" s="3"/>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="3"/>
-      <c r="B445" s="3"/>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="3"/>
-      <c r="B446" s="3"/>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="3"/>
-      <c r="B447" s="3"/>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="3"/>
-      <c r="B448" s="3"/>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="3"/>
-      <c r="B449" s="3"/>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="3"/>
-      <c r="B450" s="3"/>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="3"/>
-      <c r="B451" s="3"/>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="3"/>
-      <c r="B452" s="3"/>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="3"/>
-      <c r="B453" s="3"/>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="3"/>
-      <c r="B454" s="3"/>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="3"/>
-      <c r="B455" s="3"/>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="3"/>
-      <c r="B456" s="3"/>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="3"/>
-      <c r="B457" s="3"/>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="3"/>
-      <c r="B458" s="3"/>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="3"/>
-      <c r="B459" s="3"/>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="3"/>
-      <c r="B460" s="3"/>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="3"/>
-      <c r="B461" s="3"/>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="3"/>
-      <c r="B462" s="3"/>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="3"/>
-      <c r="B463" s="3"/>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="3"/>
-      <c r="B464" s="3"/>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="3"/>
-      <c r="B465" s="3"/>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="3"/>
-      <c r="B466" s="3"/>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="3"/>
-      <c r="B467" s="3"/>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="3"/>
-      <c r="B468" s="3"/>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="3"/>
-      <c r="B469" s="3"/>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="3"/>
-      <c r="B470" s="3"/>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="3"/>
-      <c r="B471" s="3"/>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="3"/>
-      <c r="B472" s="3"/>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="3"/>
-      <c r="B473" s="3"/>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="3"/>
-      <c r="B474" s="3"/>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="3"/>
-      <c r="B475" s="3"/>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
+        <v>16803666</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <v>45212421</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <v>44363401</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="8">
+        <v>42287326</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="8">
+        <v>16751894</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C449" s="9"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <v>16771641</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C450" s="3"/>
+      <c r="D450" s="10"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <v>46811424</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <v>16680778</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <v>40042745</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <v>5640880</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <v>45770717</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <v>45425401</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <v>16754019</v>
+      </c>
+      <c r="B457" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <v>16683541</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <v>43214655</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <v>18897651</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <v>43157511</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>25719718</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="12">
+        <v>45385378</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <v>40042745</v>
+      </c>
+      <c r="B464" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="12">
+        <v>72714263</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B466" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
+        <v>75886323</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <v>41863223</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
+        <v>47472537</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="8">
+        <v>16790892</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C470" s="8"/>
+      <c r="D470" s="10"/>
+      <c r="E470" s="15"/>
+      <c r="F470" s="15"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
+        <v>43798932</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
+        <v>74305249</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="3">
+        <v>71341733</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
+        <v>40824778</v>
+      </c>
+      <c r="B474" s="17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <v>16718322</v>
+      </c>
+      <c r="B475" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
     </row>
@@ -7020,16 +7138,16 @@
       <c r="B782" s="7"/>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="8"/>
-      <c r="B783" s="8"/>
+      <c r="A783" s="18"/>
+      <c r="B783" s="18"/>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="7"/>
       <c r="B784" s="7"/>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" s="8"/>
-      <c r="B785" s="8"/>
+      <c r="A785" s="18"/>
+      <c r="B785" s="18"/>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="7"/>
@@ -8304,8 +8422,8 @@
       <c r="B1103" s="7"/>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1104" s="9"/>
-      <c r="B1104" s="9"/>
+      <c r="A1104" s="19"/>
+      <c r="B1104" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
